--- a/data/trans_dic/P22_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P22_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con grado de felicidad &lt;=7 en la última semana</t>
+          <t>Población con grado de felicidad &lt;=7 en la última semana (tasa de respuesta: 99,59%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>26,87%</t>
+          <t>26,93%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>25,41%</t>
+          <t>37,43%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>21,2%</t>
+          <t>35,17%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>40,33%</t>
+          <t>44,3%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>41,69%</t>
+          <t>37,37%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>41,98%</t>
+          <t>40,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>33,87%</t>
+          <t>39,41%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>33,42%</t>
+          <t>30,47%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>30,58%</t>
+          <t>32,73%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>38,8%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>37,24%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>37,39%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,66; 39,22</t>
+          <t>12,71; 46,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,46; 38,05</t>
+          <t>21,53; 55,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,54; 35,03</t>
+          <t>18,13; 52,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>28,56; 51,43</t>
+          <t>26,21; 63,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>30,36; 55,86</t>
+          <t>24,53; 53,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>29,31; 54,45</t>
+          <t>26,63; 54,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>25,95; 41,51</t>
+          <t>25,2; 53,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>25,61; 43,21</t>
+          <t>18,24; 45,53</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>22,82; 38,41</t>
+          <t>23,35; 44,08</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>28,76; 49,26</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>26,93; 49,45</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>25,65; 47,89</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>43,99%</t>
+          <t>48,53%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>38,44%</t>
+          <t>40,76%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>33,21%</t>
+          <t>31,48%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>34,97%</t>
+          <t>33,24%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>39,72%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>35,96%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>25,94%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>39,05%</t>
+          <t>31,01%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>37,21%</t>
+          <t>33,69%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>29,74%</t>
+          <t>43,79%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>38,51%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>31,27%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>33,43%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>31,67; 62,24</t>
+          <t>31,38; 72,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>26,08; 53,13</t>
+          <t>23,38; 62,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>20,08; 49,36</t>
+          <t>14,23; 58,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>26,87; 45,78</t>
+          <t>14,11; 61,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,33; 45,7</t>
+          <t>26,93; 52,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,82; 35,88</t>
+          <t>24,23; 48,16</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>31,74; 49,26</t>
+          <t>19,89; 43,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>28,09; 46,03</t>
+          <t>21,98; 49,04</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>21,41; 40,13</t>
+          <t>33,05; 59,88</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>27,66; 53,47</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>20,23; 48,2</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>19,33; 50,4</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>32,0%</t>
+          <t>40,79%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>31,47%</t>
+          <t>29,65%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>41,37%</t>
+          <t>36,35%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>41,06%</t>
+          <t>27,89%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>36,0%</t>
+          <t>38,82%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>36,35%</t>
+          <t>36,73%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>36,75%</t>
+          <t>40,07%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>33,87%</t>
+          <t>39,09%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>38,79%</t>
+          <t>39,57%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>33,97%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>38,55%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>34,28%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>22,05; 42,19</t>
+          <t>27,56; 52,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>21,66; 45,47</t>
+          <t>18,4; 41,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>30,3; 56,09</t>
+          <t>22,75; 48,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>32,51; 49,39</t>
+          <t>17,01; 41,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>28,35; 43,13</t>
+          <t>29,14; 47,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>28,36; 44,49</t>
+          <t>27,98; 46,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>29,1; 43,41</t>
+          <t>30,73; 50,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>27,69; 40,66</t>
+          <t>29,51; 48,91</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>31,11; 47,23</t>
+          <t>32,47; 47,18</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>27,08; 42,0</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>30,83; 46,05</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>26,83; 43,2</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>36,97%</t>
+          <t>37,89%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>34,49%</t>
+          <t>32,94%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>37,7%</t>
+          <t>39,78%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>51,27%</t>
+          <t>41,06%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>54,13%</t>
+          <t>52,48%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>53,9%</t>
+          <t>56,98%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>44,92%</t>
+          <t>57,49%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>45,25%</t>
+          <t>46,62%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>46,38%</t>
+          <t>45,8%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>45,82%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>49,07%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>43,9%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>28,61; 45,45</t>
+          <t>26,93; 48,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>26,91; 43,91</t>
+          <t>23,2; 43,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>30,21; 46,54</t>
+          <t>30,23; 51,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>43,66; 58,77</t>
+          <t>30,12; 52,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>46,57; 61,84</t>
+          <t>41,92; 60,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>46,18; 61,47</t>
+          <t>47,25; 65,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>39,1; 50,47</t>
+          <t>47,98; 66,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>39,78; 51,43</t>
+          <t>36,46; 57,41</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>40,54; 51,85</t>
+          <t>38,81; 53,17</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>38,83; 53,4</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>41,43; 56,28</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>36,27; 51,18</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>36,91%</t>
+          <t>39,65%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>34,22%</t>
+          <t>36,79%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>42,14%</t>
+          <t>44,0%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>47,49%</t>
+          <t>38,6%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>46,55%</t>
+          <t>56,65%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>53,09%</t>
+          <t>45,28%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>42,02%</t>
+          <t>59,29%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>40,1%</t>
+          <t>53,47%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>47,48%</t>
+          <t>46,91%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>40,3%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>50,61%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>45,63%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>27,78; 48,38</t>
+          <t>26,71; 54,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>24,74; 45,21</t>
+          <t>25,15; 54,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>32,19; 51,17</t>
+          <t>32,15; 58,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>38,41; 57,69</t>
+          <t>26,98; 53,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>37,37; 56,36</t>
+          <t>40,4; 69,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>43,64; 63,08</t>
+          <t>32,57; 59,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>35,84; 49,48</t>
+          <t>45,68; 72,21</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>34,09; 47,48</t>
+          <t>38,36; 67,46</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>40,08; 54,13</t>
+          <t>38,26; 58,34</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>31,41; 51,55</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>41,44; 59,95</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>36,97; 55,05</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>28,49%</t>
+          <t>36,97%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>32,28%</t>
+          <t>39,37%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>42,24%</t>
+          <t>43,58%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>46,43%</t>
+          <t>30,64%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>39,96%</t>
+          <t>48,1%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>52,33%</t>
+          <t>42,06%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>38,43%</t>
+          <t>59,08%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>36,65%</t>
+          <t>59,88%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>48,14%</t>
+          <t>43,12%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>40,82%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>52,01%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>48,1%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>19,6; 39,46</t>
+          <t>22,95; 53,02</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>21,97; 43,16</t>
+          <t>24,94; 56,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>31,51; 53,9</t>
+          <t>27,18; 59,88</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>35,74; 57,6</t>
+          <t>18,9; 49,15</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>26,09; 51,84</t>
+          <t>33,06; 63,12</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>29,55; 68,02</t>
+          <t>27,89; 58,45</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>31,23; 46,38</t>
+          <t>43,72; 75,76</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>27,7; 45,02</t>
+          <t>43,12; 77,21</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>33,31; 57,71</t>
+          <t>33,89; 55,5</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>30,45; 51,69</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>40,83; 62,74</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>36,31; 61,8</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>34,38%</t>
+          <t>39,02%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>32,75%</t>
+          <t>35,85%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>35,74%</t>
+          <t>37,87%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>43,84%</t>
+          <t>35,8%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>42,74%</t>
+          <t>44,86%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>44,01%</t>
+          <t>43,18%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>39,41%</t>
+          <t>46,84%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>37,95%</t>
+          <t>44,25%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>39,94%</t>
+          <t>42,21%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>39,68%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>42,45%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>40,13%</t>
         </is>
       </c>
     </row>
@@ -1345,64 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>30,08; 39,04</t>
+          <t>33,41; 46,42</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>27,75; 37,18</t>
+          <t>30,07; 43,33</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>31,0; 41,27</t>
+          <t>31,65; 44,99</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>39,88; 47,84</t>
+          <t>28,96; 43,11</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>38,7; 46,47</t>
+          <t>39,96; 50,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>38,96; 47,98</t>
+          <t>38,3; 47,89</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>36,48; 42,42</t>
+          <t>41,86; 52,09</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>34,98; 40,89</t>
+          <t>38,58; 49,93</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>36,38; 43,19</t>
+          <t>38,42; 46,03</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>35,62; 43,87</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>38,25; 46,6</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>35,54; 45,02</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con grado de felicidad &lt;=7 en la última semana (tasa de respuesta: 99,59%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>28816</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>39571</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>44856</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>64583</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>50074</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>48034</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>48283</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>44337</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>78891</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>87604</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>93139</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>108919</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>13598; 49826</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>22765; 58901</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>23131; 66850</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>38209; 91993</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>32867; 71391</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>31973; 65507</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>30872; 65550</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>26544; 66247</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>56281; 106252</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>64941; 111223</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>67359; 123659</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>74717; 139499</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>68695</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>58447</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>48565</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>75684</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>65586</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>45563</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>39175</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>54702</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>134281</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>104010</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>87740</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>130387</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>44422; 103023</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>33531; 90231</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>21947; 90037</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>32118; 140213</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>44455; 87287</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>30700; 61020</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>25127; 54606</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>35684; 79624</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>101354; 183642</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>74714; 144410</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>56750; 135235</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>75385; 196582</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>66108</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>39845</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>50032</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>50264</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>102521</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>76908</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>80322</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>93695</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>168629</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>116753</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>130354</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>143959</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>44667; 84633</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>24729; 56273</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>31318; 66414</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>30662; 74143</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>76938; 125933</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>58590; 97099</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>61599; 100229</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>70725; 117231</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>138359; 201062</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>93070; 144362</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>104233; 155687</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>112678; 181404</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>69823</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>53100</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>62136</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>82704</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>114609</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>105954</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>99153</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>97798</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>184433</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>159054</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>161289</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>180502</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>49628; 89287</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>37407; 70736</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>47227; 80559</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>60675; 105561</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>91549; 132922</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>87850; 122637</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>82748; 115472</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>76481; 120430</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>156288; 214086</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>134816; 185384</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>136179; 184981</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>149152; 210456</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>60706</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>47906</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>53512</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>58967</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>64612</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>41669</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>54942</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>73284</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>125318</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>89576</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>108453</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>132251</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>40901; 83543</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>32751; 70333</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>39108; 70673</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>41221; 81790</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>46079; 78706</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>29970; 54664</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>42335; 66918</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>52577; 92455</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>102209; 155869</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>69803; 114584</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>88801; 128468</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>107143; 159542</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>40419</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>34382</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>38242</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>42230</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>64883</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>43140</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>61822</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>122260</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>105302</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>77521</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>100064</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>164490</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>25086; 57963</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>21780; 49313</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>23851; 52550</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>26044; 67749</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>44599; 85143</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>28610; 59950</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>45756; 79282</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>88042; 157638</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>82768; 135542</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>57826; 98167</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>78564; 120709</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>124176; 211361</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>188.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>293.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>280.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>304.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>276.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>334568</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>273250</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>297344</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>374432</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>462286</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>361268</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>383696</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>486076</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>796854</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>634518</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>681039</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>860508</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>286472; 397999</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>229208; 330312</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>248443; 353216</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>302819; 450826</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>411782; 516348</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>320476; 400648</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>342837; 426651</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>423842; 548466</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>725235; 868887</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>569519; 701508</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>613532; 747508</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>762119; 965407</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>